--- a/node/js/data/demo.xlsx
+++ b/node/js/data/demo.xlsx
@@ -401,35 +401,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>远洋天著春秋</v>
+        <v>合生霄云路8号</v>
       </c>
       <c r="B2" t="str">
-        <v>2700~6800万</v>
+        <v>6008万6008~9200万</v>
       </c>
       <c r="C2" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyvTiEaOmkAAAAAIVAuTw595.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/18/rBAOKFoKzMiEBvgZAAAAALJYGmQ110.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
-        <v>首开琅樾</v>
+        <v>禧瑞春秋</v>
       </c>
       <c r="B3" t="str">
-        <v>1425~3300万</v>
+        <v>950万950~3200万</v>
       </c>
       <c r="C3" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/22/rBAOKFl668WEONiDAAAAAKc5RkQ090.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/10/01/rBAOKFumQRuEawW7AAAAAMHZGE8229.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <v>泰禾丽春湖院子</v>
+        <v>观承别墅大家</v>
       </c>
       <c r="B4" t="str">
-        <v>2300~7000万</v>
+        <v>2300万2300~2300万</v>
       </c>
       <c r="C4" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/27/rBAOKFmAXEWEQwjHAAAAAPgstm0745.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/10/16/rBAOJ1vFsW6ENIS2AAAAANRmWtE98.jpeg.300x200.jpg</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>观承别墅</v>
       </c>
       <c r="B5" t="str">
-        <v>2700~2800万</v>
+        <v>2680万2680~2800万</v>
       </c>
       <c r="C5" t="str">
         <v>http://image.lizihang.com/group1/M00/07/2A/rBAOJ1cxRn2EM7LVAAAAAKTFREU742.jpg.300x200.jpg</v>
@@ -445,695 +445,1542 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <v>格拉斯小镇</v>
+        <v>首开琅樾</v>
       </c>
       <c r="B6" t="str">
-        <v>5850~5900万</v>
+        <v>1425万1425~4773万</v>
       </c>
       <c r="C6" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/27/rBAOKFmAWmyEcK1NAAAAAIDeMwc215.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/59/rBAOJ1rFjnGEFIBQAAAAAJMQ-Bc438.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <v>保利首开天誉</v>
+        <v>山水文园五期</v>
       </c>
       <c r="B7" t="str">
-        <v>2066~4200万</v>
+        <v>3719万3719~3719万</v>
       </c>
       <c r="C7" t="str">
-        <v>http://image.lizihang.com/group1/M00/09/1E/rBAOJ1gSwOSEZ2LyAAAAAM7uuaU225.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/C0/rBAOKFlCMMCEdGTRAAAAAOshPGU684.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <v>合生霄云路8号</v>
+        <v>远洋天著春秋</v>
       </c>
       <c r="B8" t="str">
-        <v>6266~9200万</v>
+        <v>2851万2851~6800万</v>
       </c>
       <c r="C8" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/18/rBAOKFoKzMiEBvgZAAAAALJYGmQ110.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyvTiEaOmkAAAAAIVAuTw595.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <v>世茂西山龙胤</v>
+        <v>梵悦108</v>
       </c>
       <c r="B9" t="str">
-        <v>3650~8300万</v>
+        <v>1530万1530~9999万</v>
       </c>
       <c r="C9" t="str">
-        <v>http://image.lizihang.com/group1/M00/0F/4B/rBAOKFtG69KEH7dxAAAAAFjnZYM408.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0C/0F/rBAOJ1mAXXKEZ1BQAAAAACREKMg135.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <v>中粮瑞府</v>
+        <v>禧瑞都</v>
       </c>
       <c r="B10" t="str">
-        <v>3524~7280万</v>
+        <v>6888万6888~9247万</v>
       </c>
       <c r="C10" t="str">
-        <v>http://image.lizihang.com/group1/M00/09/1D/rBAOJ1gSvwqEF-LkAAAAACmtO3w542.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0C/55/rBAOKFmaRWWELfbQAAAAAKQXpkY512.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <v>金科天玺</v>
+        <v>润泽御府</v>
       </c>
       <c r="B11" t="str">
-        <v>1880~3500万</v>
+        <v>5300万5300~8200万</v>
       </c>
       <c r="C11" t="str">
-        <v>http://image.lizihang.com/group1/M00/07/43/rBAOKFcxUGCEUv3LAAAAAJLAiaU478.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyvd2ERnYeAAAAAOFu5Kk540.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <v>九章别墅</v>
+        <v>保利首开天誉</v>
       </c>
       <c r="B12" t="str">
-        <v>8499~9300万</v>
+        <v>2066万2066~4200万</v>
       </c>
       <c r="C12" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/A5/rBAOJ1lBKzWEXUtFAAAAAAVan3Y382.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/09/1E/rBAOJ1gSwOSEZ2LyAAAAAM7uuaU225.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <v>首城珑玺</v>
+        <v>融创北京壹号庄园（东方普罗旺斯）</v>
       </c>
       <c r="B13" t="str">
-        <v>1900~5500万</v>
+        <v>6380万6380~9500万</v>
       </c>
       <c r="C13" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYWuEHWp9AAAAABfsNQk682.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/36/rBAOJ1oeNHeEScQTAAAAAB59cCQ564.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <v>融创北京壹号庄园（东方普罗旺斯）</v>
+        <v>首城珑玺</v>
       </c>
       <c r="B14" t="str">
-        <v>9000~9500万</v>
+        <v>1900万1900~5500万</v>
       </c>
       <c r="C14" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/36/rBAOJ1oeNHeEScQTAAAAAB59cCQ564.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYWuEHWp9AAAAABfsNQk682.png.300x200.jpg</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <v>中国院子</v>
+        <v>九章别墅</v>
       </c>
       <c r="B15" t="str">
-        <v>7000万</v>
+        <v>8499万8499~9300万</v>
       </c>
       <c r="C15" t="str">
-        <v>http://image.lizihang.com/group1/M00/07/B1/rBAOKFdx1YSEFcIcAAAAAB7ZF4M814.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/A5/rBAOJ1lBKzWEXUtFAAAAAAVan3Y382.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <v>清锦源</v>
+        <v>霞公府</v>
       </c>
       <c r="B16" t="str">
-        <v>6400~9700万</v>
+        <v>5550万5550~8595万</v>
       </c>
       <c r="C16" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/8F/rBAOKFkxZHKEd_McAAAAANeV5vI751.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/07/2B/rBAOJ1cxVj2EP973AAAAADo5dTo946.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <v>国瑞熙墅</v>
+        <v>泰禾金府大院</v>
       </c>
       <c r="B17" t="str">
-        <v>1204~1700万</v>
+        <v>1100万1100~2300万</v>
       </c>
       <c r="C17" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/0E/rBAOKFluvFSEVQ3kAAAAAIkUwY4669.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/8F/rBAOJ1pUaWqEP7jgAAAAAC32Zh4261.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <v>中冶德贤公馆</v>
+        <v>紫辰院</v>
       </c>
       <c r="B18" t="str">
-        <v>1600~2000万</v>
+        <v>1943万1943~5000万</v>
       </c>
       <c r="C18" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/E1/rBAOJ1lfYf2EZBatAAAAAF9b7nk744.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/F0/rBAOKFpyi2uEGHKEAAAAAA16Ti4792.png.300x200.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <v>龙湖西宸广场</v>
+        <v>玺萌壹号院</v>
       </c>
       <c r="B19" t="str">
-        <v>300~600万</v>
+        <v>3399万3399~4500万</v>
       </c>
       <c r="C19" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/16/rBAOJ1qjXnaEK7zdAAAAAHpNfC0347.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/44/rBAOKFqqDgyEREvvAAAAAAc8p7o045.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <v>梵悦108</v>
+        <v>国瑞熙墅</v>
       </c>
       <c r="B20" t="str">
-        <v>1530~5060万</v>
+        <v>1200万1200~2000万</v>
       </c>
       <c r="C20" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/0F/rBAOJ1mAXXKEZ1BQAAAAACREKMg135.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0C/0E/rBAOKFluvFSEVQ3kAAAAAIkUwY4669.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <v>禧瑞都</v>
+        <v>世茂西山龙胤</v>
       </c>
       <c r="B21" t="str">
-        <v>6740~8400万</v>
+        <v>3599万3599~5387万</v>
       </c>
       <c r="C21" t="str">
-        <v>http://image.lizihang.com/group1/M00/07/A0/rBAOKFdqK_2EWa2QAAAAAFAF9yQ713.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0F/4B/rBAOKFtG69KEH7dxAAAAAFjnZYM408.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <v>新世界丽樽</v>
+        <v>壹·亮马</v>
       </c>
       <c r="B22" t="str">
-        <v>2000~7000万</v>
+        <v>1630万1630~2300万</v>
       </c>
       <c r="C22" t="str">
-        <v>http://image.lizihang.com/group1/M00/07/41/rBAOKFcxQLWEEMV_AAAAAFtDVz4158.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/F0/C5/Cgp9PVwTItaEKHd0AAAAAIfcR6M982.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <v>凯德麓语</v>
+        <v>懋源·璟岳</v>
       </c>
       <c r="B23" t="str">
-        <v>1620~3500万</v>
+        <v>1790万1790~7100万</v>
       </c>
       <c r="C23" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/94/rBAOKFkyf7qEMAmiAAAAAEzjkqc369.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/27/7B/Cgp9PVw1qJiEeVktAAAAALip1_Q318.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <v>霞公府</v>
+        <v>尊悦光华</v>
       </c>
       <c r="B24" t="str">
-        <v>5550~8595万</v>
+        <v>1800万1800~3300万</v>
       </c>
       <c r="C24" t="str">
-        <v>http://image.lizihang.com/group1/M00/07/2B/rBAOJ1cxVj2EP973AAAAADo5dTo946.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/E4/97/Cgp9PVvlbSqEZpQYAAAAAPMSIl8794.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <v>保利和光尘樾</v>
+        <v>昆仑域</v>
       </c>
       <c r="B25" t="str">
-        <v>1723~3800万</v>
+        <v>2517万2517~3100万</v>
       </c>
       <c r="C25" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/0D/rBAOKFqT4R6EWYxhAAAAADpv_ek144.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/42/31/Cgp9PVvwIfaEV68XAAAAAChuT-c252.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <v>天润福熙大道</v>
+        <v>利锦府</v>
       </c>
       <c r="B26" t="str">
-        <v>1349~3000万</v>
+        <v>2009万2009~2662万</v>
       </c>
       <c r="C26" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/93/rBAOKFkyblGEOsc8AAAAAHtpHZo021.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0C/CF/rBAOKFnl6J-EKKUUAAAAAHK5fpA260.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <v>鸿坤林语墅</v>
+        <v>中冶德贤公馆</v>
       </c>
       <c r="B27" t="str">
-        <v>2700~5906万</v>
+        <v>1300万1300~1750万</v>
       </c>
       <c r="C27" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/AB/rBAOKFpV7jGEe75YAAAAABLtUU4460.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/E1/rBAOJ1lfYf2EZBatAAAAAF9b7nk744.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <v>钓云台</v>
+        <v>中粮天恒天悦壹号</v>
       </c>
       <c r="B28" t="str">
-        <v>3142~3356万</v>
+        <v>1200万1200~2900万</v>
       </c>
       <c r="C28" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/6A/rBAOJ1kqYfaEV8UyAAAAAKTlhEg628.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/3C/rBAOJ1qyRgaEPMz5AAAAABWwN80732.png.300x200.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <v>紫辰院</v>
+        <v>海晏春秋</v>
       </c>
       <c r="B29" t="str">
-        <v>1943~5000万</v>
+        <v>1300万1300~2300万</v>
       </c>
       <c r="C29" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/F0/rBAOKFpyi2uEGHKEAAAAAA16Ti4792.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/50/64/Cgp9PVwQiNGEFSlkAAAAANZcysE790.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <v>珠江紫宸山</v>
+        <v>御汤山</v>
       </c>
       <c r="B30" t="str">
-        <v>2820~4120万</v>
+        <v>1600万1600~2500万</v>
       </c>
       <c r="C30" t="str">
-        <v>http://image.lizihang.com/group1/M00/09/36/rBAOKFgSwK2ECOneAAAAAOHyyjE884.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/87/rBAOJ1k2ZgCEYdH4AAAAABt0teI998.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <v>利锦府</v>
+        <v>中粮瑞府</v>
       </c>
       <c r="B31" t="str">
-        <v>2009~2662万</v>
+        <v>4288万4288~7280万</v>
       </c>
       <c r="C31" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/2D/rBAOJ1mSvpmEGKo8AAAAAOgwF6Y175.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/FB/rBAOJ1qWQIiEYjvSAAAAAPKdkVE741.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <v>融创紫禁壹号院</v>
+        <v>珠江紫宸山</v>
       </c>
       <c r="B32" t="str">
-        <v>3600~9800万</v>
+        <v>2780万2780~4920万</v>
       </c>
       <c r="C32" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/DA/rBAOJ1laFgOESGo6AAAAALJ5dUU704.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/09/36/rBAOKFgSwK2ECOneAAAAAOHyyjE884.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <v>V7九间堂</v>
+        <v>清锦源</v>
       </c>
       <c r="B33" t="str">
-        <v>1800~3100万</v>
+        <v>6400万6400~9700万</v>
       </c>
       <c r="C33" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/A0/rBAOKFk2ig6EHGkyAAAAAKXoGqk117.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/8F/rBAOKFkxZHKEd_McAAAAANeV5vI751.png.300x200.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <v>首开龙湖天琅</v>
+        <v>V7九间堂</v>
       </c>
       <c r="B34" t="str">
-        <v>1500~3841万</v>
+        <v>1600万1600~3100万</v>
       </c>
       <c r="C34" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/2F/rBAOJ1odT86ENcTEAAAAAMAJDik826.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/A0/rBAOKFk2ig6EHGkyAAAAAKXoGqk117.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <v>世界侨商中心</v>
+        <v>金科天玺</v>
       </c>
       <c r="B35" t="str">
-        <v>633~2610万</v>
+        <v>1800万1800~2160万</v>
       </c>
       <c r="C35" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/6C/rBAOJ1o7iSSEIun0AAAAAExrdpw422.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/07/43/rBAOKFcxUGCEUv3LAAAAAJLAiaU478.png.300x200.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <v>电建·金地华宸</v>
+        <v>龙湾别墅</v>
       </c>
       <c r="B36" t="str">
-        <v>1150~1750万</v>
+        <v>1426万1426~1500万</v>
       </c>
       <c r="C36" t="str">
-        <v>http://image.lizihang.com/group1/M00/0F/53/rBAOKFtI5YWEJQrAAAAAABSwDtQ906.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/26/rBAOJ1oc182EcksoAAAAAAeA_TY785.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <v>龙湖长安天街</v>
+        <v>鸿坤林语墅</v>
       </c>
       <c r="B37" t="str">
-        <v>350~580万</v>
+        <v>3900万3900~5906万</v>
       </c>
       <c r="C37" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/B2/rBAOJ1r2ycmEPCyXAAAAAN0WJd4162.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/AB/rBAOKFpV7jGEe75YAAAAABLtUU4460.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <v>盛德紫阙</v>
+        <v>钓云台</v>
       </c>
       <c r="B38" t="str">
-        <v>2739~4911万</v>
+        <v>3142万3142~3356万</v>
       </c>
       <c r="C38" t="str">
-        <v>http://image.lizihang.com/group1/M00/09/1C/rBAOJ1gSskWEQJ0JAAAAAAz4ppw120.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/6A/rBAOJ1kqYfaEV8UyAAAAAKTlhEg628.png.300x200.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <v>长安太和</v>
+        <v>佑安府</v>
       </c>
       <c r="B39" t="str">
-        <v>1600~8300万</v>
+        <v>2800万2800~4100万</v>
       </c>
       <c r="C39" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/7F/rBAOJ1kyyb-EaK7tAAAAAO66hbY505.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/11/3F/Cgp9PVvq30SEMIG7AAAAACkMTao651.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <v>泰禾北京院子</v>
+        <v>红廷别墅</v>
       </c>
       <c r="B40" t="str">
-        <v>2700~3122万</v>
+        <v>2700万2700~7200万</v>
       </c>
       <c r="C40" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/42/rBAOJ1mdRt6EbWHVAAAAAMBXGHs718.JPG.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/77/rBAOJ1kxXgOEJ0xyAAAAAF19Uys397.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <v>骏豪阿玛尼公寓</v>
+        <v>京基鹭府</v>
       </c>
       <c r="B41" t="str">
-        <v>6000~8000万</v>
+        <v>2560万2560~5300万</v>
       </c>
       <c r="C41" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/9D/rBAOJ1k9cWiEBO5aAAAAAF02fwA79.jpeg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/7C/rBAOKFkoSyWEZpZMAAAAAH-zj08567.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <v>红廷别墅</v>
+        <v>首开国风尚樾</v>
       </c>
       <c r="B42" t="str">
-        <v>2700~7200万</v>
+        <v>1895万1895~2800万</v>
       </c>
       <c r="C42" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/77/rBAOJ1kxXgOEJ0xyAAAAAF19Uys397.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <v>首开国风尚樾</v>
+        <v>棠颂别墅璟庐</v>
       </c>
       <c r="B43" t="str">
-        <v>1221~2800万</v>
+        <v>1838万1838~2000万</v>
       </c>
       <c r="C43" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <v>棠颂别墅璟庐</v>
+        <v>温哥华森林</v>
       </c>
       <c r="B44" t="str">
-        <v>1800~2000万</v>
+        <v>2450万2450~2688万</v>
       </c>
       <c r="C44" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <v>温哥华森林</v>
+        <v>燕西华府</v>
       </c>
       <c r="B45" t="str">
-        <v>2450~2688万</v>
+        <v>1685万1685~7000万</v>
       </c>
       <c r="C45" t="str">
-        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <v>燕西华府</v>
+        <v>康城暖山</v>
       </c>
       <c r="B46" t="str">
-        <v>1685~7000万</v>
+        <v>2850万2850~5100万</v>
       </c>
       <c r="C46" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <v>电建泷悦长安</v>
+        <v>西单上国阙</v>
       </c>
       <c r="B47" t="str">
-        <v>1700~1800万</v>
+        <v>3100万3100~5780万</v>
       </c>
       <c r="C47" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/9B/rBAOJ1k9VjiEJFPjAAAAAEcYu-Q184.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <v>合景映月台</v>
+        <v>和锦薇棠</v>
       </c>
       <c r="B48" t="str">
-        <v>1877万</v>
+        <v>1578万1578~2620万</v>
       </c>
       <c r="C48" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/96/rBAOKFkyskeER0wEAAAAANFcGFk554.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <v>鲁能钓鱼台美高梅别墅</v>
+        <v>大都会79号</v>
       </c>
       <c r="B49" t="str">
-        <v>5908~9400万</v>
+        <v>3000万3000~3500万</v>
       </c>
       <c r="C49" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/02/rBAOKFlmAoGEOCCWAAAAAGjAuwQ366.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <v>康城暖山</v>
+        <v>国锐金嵿</v>
       </c>
       <c r="B50" t="str">
-        <v>2850~5100万</v>
+        <v>1999万1999~2400万</v>
       </c>
       <c r="C50" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <v>西单上国阙</v>
+        <v>京投银泰檀香府</v>
       </c>
       <c r="B51" t="str">
-        <v>3100~5780万</v>
+        <v>1777万1777~1900万</v>
       </c>
       <c r="C51" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <v>易郡山庄</v>
+        <v>御河壹号庄园</v>
       </c>
       <c r="B52" t="str">
-        <v>1595~2400万</v>
+        <v>2300万2300~2800万</v>
       </c>
       <c r="C52" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/18/rBAOJ1mFadOEVJvhAAAAAJaUqLc265.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <v>西山艺境</v>
+        <v>北京院子二期</v>
       </c>
       <c r="B53" t="str">
-        <v>1350~2500万</v>
+        <v>2250万2250~2250万</v>
       </c>
       <c r="C53" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/62/rBAOJ1mvz2SEbHe5AAAAAA1_M5k195.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <v>国锐金嵿</v>
+        <v>北京金茂府</v>
       </c>
       <c r="B54" t="str">
-        <v>1999~2400万</v>
+        <v>2100万2100~2400万</v>
       </c>
       <c r="C54" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <v>京投银泰檀香府</v>
+        <v>首开国风尚樾</v>
       </c>
       <c r="B55" t="str">
-        <v>1777~1900万</v>
+        <v>1895万1895~2800万</v>
       </c>
       <c r="C55" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <v>金茂广场</v>
+        <v>棠颂别墅璟庐</v>
       </c>
       <c r="B56" t="str">
-        <v>9000~9400万</v>
+        <v>1838万1838~2000万</v>
       </c>
       <c r="C56" t="str">
-        <v>http://image.lizihang.com/group1/M00/0F/60/rBAOKFtSzgyEK994AAAAAGMWDFY405.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <v>领秀翡翠墅</v>
+        <v>温哥华森林</v>
       </c>
       <c r="B57" t="str">
-        <v>1500~2400万</v>
+        <v>2450万2450~2688万</v>
       </c>
       <c r="C57" t="str">
-        <v>http://image.lizihang.com/group1/M00/0F/64/rBAOKFtURMCEAJm2AAAAAEVoBhc830.png.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <v>兴创屹墅</v>
+        <v>燕西华府</v>
       </c>
       <c r="B58" t="str">
-        <v>2920~3400万</v>
+        <v>1685万1685~7000万</v>
       </c>
       <c r="C58" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/AF/rBAOKFrliniEAylVAAAAAI66UU8511.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <v>保利佲悦大都汇</v>
+        <v>康城暖山</v>
       </c>
       <c r="B59" t="str">
-        <v>4600~5000万</v>
+        <v>2850万2850~5100万</v>
       </c>
       <c r="C59" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/CF/rBAOKFnl5ZyEYfFeAAAAAIrpmuc776.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <v>首开保利欢乐大都汇</v>
+        <v>西单上国阙</v>
       </c>
       <c r="B60" t="str">
-        <v>1500~2400万</v>
+        <v>3100万3100~5780万</v>
       </c>
       <c r="C60" t="str">
-        <v>http://image.lizihang.com/group1/M00/0C/9D/rBAOJ1nWCgWEb1frAAAAAOZx9Ms521.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <v>新华联潮白河8号</v>
+        <v>和锦薇棠</v>
       </c>
       <c r="B61" t="str">
-        <v>1500~2800万</v>
+        <v>1578万1578~2620万</v>
       </c>
       <c r="C61" t="str">
-        <v>http://image.lizihang.com/group1/M00/0E/DC/rBAOJ1sPY7-EWaNGAAAAAGRvDDI108.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <v>龙樾华府</v>
+        <v>大都会79号</v>
       </c>
       <c r="B62" t="str">
-        <v>1402~1921万</v>
+        <v>3000万3000~3500万</v>
       </c>
       <c r="C62" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <v>龙樾华府</v>
+        <v>国锐金嵿</v>
       </c>
       <c r="B63" t="str">
-        <v>1402~1921万</v>
+        <v>1999万1999~2400万</v>
       </c>
       <c r="C63" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
-        <v>龙樾华府</v>
+        <v>京投银泰檀香府</v>
       </c>
       <c r="B64" t="str">
-        <v>1402~1921万</v>
+        <v>1777万1777~1900万</v>
       </c>
       <c r="C64" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
-        <v>龙樾华府</v>
+        <v>御河壹号庄园</v>
       </c>
       <c r="B65" t="str">
-        <v>1402~1921万</v>
+        <v>2300万2300~2800万</v>
       </c>
       <c r="C65" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <v>龙樾华府</v>
+        <v>北京院子二期</v>
       </c>
       <c r="B66" t="str">
-        <v>1402~1921万</v>
+        <v>2250万2250~2250万</v>
       </c>
       <c r="C66" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
-        <v>龙樾华府</v>
+        <v>北京金茂府</v>
       </c>
       <c r="B67" t="str">
-        <v>1402~1921万</v>
+        <v>2100万2100~2400万</v>
       </c>
       <c r="C67" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
-        <v>龙樾华府</v>
+        <v>首开国风尚樾</v>
       </c>
       <c r="B68" t="str">
-        <v>1402~1921万</v>
+        <v>1895万1895~2800万</v>
       </c>
       <c r="C68" t="str">
-        <v>http://image.lizihang.com/group1/M00/0B/82/rBAOKFkqYcKEJJa0AAAAAFrQTPo757.jpg.300x200.jpg</v>
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B69" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C69" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C70" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B71" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C71" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C72" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B73" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C73" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B74" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C74" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B75" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C75" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B76" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C76" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B77" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C77" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C78" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C79" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C80" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <v>首开国风尚樾</v>
+      </c>
+      <c r="B81" t="str">
+        <v>1895万1895~2800万</v>
+      </c>
+      <c r="C81" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B82" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C82" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C83" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B84" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C84" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C85" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B86" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C86" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B87" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C87" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B88" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C88" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B89" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C89" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B90" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C90" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C91" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B92" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C92" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B93" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C93" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <v>首开国风尚樾</v>
+      </c>
+      <c r="B94" t="str">
+        <v>1895万1895~2800万</v>
+      </c>
+      <c r="C94" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B95" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C95" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B96" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C96" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B97" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C97" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B98" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C98" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B99" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C99" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B100" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C100" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B101" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C101" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B102" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C102" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B103" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C103" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B104" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C104" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B105" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C105" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B106" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C106" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <v>首开国风尚樾</v>
+      </c>
+      <c r="B107" t="str">
+        <v>1895万1895~2800万</v>
+      </c>
+      <c r="C107" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B108" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C108" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B109" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C109" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B110" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C110" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C111" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B112" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C112" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B113" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C113" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B114" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C114" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B115" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C115" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B116" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C116" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C117" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B118" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C118" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C119" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <v>首开国风尚樾</v>
+      </c>
+      <c r="B120" t="str">
+        <v>1895万1895~2800万</v>
+      </c>
+      <c r="C120" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B121" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C121" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B122" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C122" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B123" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C123" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B124" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C124" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B125" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C125" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B126" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C126" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B127" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C127" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B128" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C128" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B129" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C129" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B130" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C130" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B131" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C131" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B132" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C132" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <v>首开国风尚樾</v>
+      </c>
+      <c r="B133" t="str">
+        <v>1895万1895~2800万</v>
+      </c>
+      <c r="C133" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/A4/rBAOJ1lBDoqEZ4ptAAAAAM-CtEI32.jpeg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <v>棠颂别墅璟庐</v>
+      </c>
+      <c r="B134" t="str">
+        <v>1838万1838~2000万</v>
+      </c>
+      <c r="C134" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1B/rBAOKFqX4iSEYQjHAAAAAEkMJbc576.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <v>温哥华森林</v>
+      </c>
+      <c r="B135" t="str">
+        <v>2450万2450~2688万</v>
+      </c>
+      <c r="C135" t="str">
+        <v>http://image.lizihang.com/group1/M00/0D/27/rBAOKFoSQqKEH_feAAAAAK-NaSw501.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <v>燕西华府</v>
+      </c>
+      <c r="B136" t="str">
+        <v>1685万1685~7000万</v>
+      </c>
+      <c r="C136" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/97/rBAOKFkyx1CEfBBzAAAAAOJHOgo527.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <v>康城暖山</v>
+      </c>
+      <c r="B137" t="str">
+        <v>2850万2850~5100万</v>
+      </c>
+      <c r="C137" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/70/rBAOKFrEs2KELtGHAAAAAMv2Gxg422.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <v>西单上国阙</v>
+      </c>
+      <c r="B138" t="str">
+        <v>3100万3100~5780万</v>
+      </c>
+      <c r="C138" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/E9/rBAOJ1ll9v6EDa3NAAAAAGThJNI961.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <v>和锦薇棠</v>
+      </c>
+      <c r="B139" t="str">
+        <v>1578万1578~2620万</v>
+      </c>
+      <c r="C139" t="str">
+        <v>http://image.lizihang.com/group1/M00/10/1F/rBAOKFu9h6CETgtvAAAAAAlZRus368.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <v>大都会79号</v>
+      </c>
+      <c r="B140" t="str">
+        <v>3000万3000~3500万</v>
+      </c>
+      <c r="C140" t="str">
+        <v>http://image.lizihang.com/group1/M00/AA/65/Cgp9PVwRs7iESdf4AAAAAA_gdMs188.JPG.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <v>国锐金嵿</v>
+      </c>
+      <c r="B141" t="str">
+        <v>1999万1999~2400万</v>
+      </c>
+      <c r="C141" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/50/rBAOJ1q9syWEDqT3AAAAAA4v6xY758.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <v>京投银泰檀香府</v>
+      </c>
+      <c r="B142" t="str">
+        <v>1777万1777~1900万</v>
+      </c>
+      <c r="C142" t="str">
+        <v>http://image.lizihang.com/group1/M00/0B/5E/rBAOJ1kmrDeELNv0AAAAAHuIf4Q891.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <v>御河壹号庄园</v>
+      </c>
+      <c r="B143" t="str">
+        <v>2300万2300~2800万</v>
+      </c>
+      <c r="C143" t="str">
+        <v>http://image.lizihang.com/group1/M00/4D/83/Cgp9Plveqp-EFDReAAAAAFa0IiQ257.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <v>北京院子二期</v>
+      </c>
+      <c r="B144" t="str">
+        <v>2250万2250~2250万</v>
+      </c>
+      <c r="C144" t="str">
+        <v>http://image.lizihang.com/group1/M00/0F/90/rBAOKFtu8dSELXlIAAAAAH4AKSE567.jpg.300x200.jpg</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <v>北京金茂府</v>
+      </c>
+      <c r="B145" t="str">
+        <v>2100万2100~2400万</v>
+      </c>
+      <c r="C145" t="str">
+        <v>http://image.lizihang.com/group1/M00/0E/1C/rBAOKFqYHxOEfoNfAAAAAMmuJ-M127.jpg.300x200.jpg</v>
       </c>
     </row>
   </sheetData>
